--- a/excel/AI Agents for Website, Web and Mobile Applicaitons.xlsx
+++ b/excel/AI Agents for Website, Web and Mobile Applicaitons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77924CB5-E862-4011-AB22-EC84DD97CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{77924CB5-E862-4011-AB22-EC84DD97CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B90B9523-1ADD-436B-8CBD-A79603C71DB1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2487378C-D548-4076-A00D-4EE460E0184E}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{2487378C-D548-4076-A00D-4EE460E0184E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>AI Agents for Website, Web and mobile applications</t>
   </si>
@@ -60,18 +60,12 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>10Web.io</t>
-  </si>
-  <si>
     <t>TeleportHQ</t>
   </si>
   <si>
     <t>AI UI code generator and website prototyping</t>
   </si>
   <si>
-    <t>TeleportHQ.io</t>
-  </si>
-  <si>
     <t>Builder.io</t>
   </si>
   <si>
@@ -87,54 +81,36 @@
     <t>AI-assisted drag &amp; drop website builder</t>
   </si>
   <si>
-    <t>Wix.com</t>
-  </si>
-  <si>
     <t>Zyro AI Website Builder</t>
   </si>
   <si>
     <t>AI-powered site builder and content generator</t>
   </si>
   <si>
-    <t>Zyro.com</t>
-  </si>
-  <si>
     <t>Appy Pie App Builder</t>
   </si>
   <si>
     <t>No-code mobile app development with AI features</t>
   </si>
   <si>
-    <t>AppyPie.com</t>
-  </si>
-  <si>
     <t>Thunkable</t>
   </si>
   <si>
     <t>No-code/low-code mobile app builder with AI integration</t>
   </si>
   <si>
-    <t>Thunkable.com</t>
-  </si>
-  <si>
     <t>Adalo</t>
   </si>
   <si>
     <t>AI-supported mobile and web app creation without coding</t>
   </si>
   <si>
-    <t>Adalo.com</t>
-  </si>
-  <si>
     <t>Glide</t>
   </si>
   <si>
     <t>No-code mobile app builder powered by AI data connectors</t>
   </si>
   <si>
-    <t>Glideapps.com</t>
-  </si>
-  <si>
     <t>V.One</t>
   </si>
   <si>
@@ -147,18 +123,12 @@
     <t>AI-powered website creation from text prompts</t>
   </si>
   <si>
-    <t>Framer.com</t>
-  </si>
-  <si>
     <t>Uizard</t>
   </si>
   <si>
     <t>AI UX/UI design platform turning sketches into web/mobile prototypes</t>
   </si>
   <si>
-    <t>Uizard.io</t>
-  </si>
-  <si>
     <t>Bubble.io</t>
   </si>
   <si>
@@ -171,27 +141,18 @@
     <t>AI-driven site builder, content generator, and CMS management</t>
   </si>
   <si>
-    <t>Webflow.com</t>
-  </si>
-  <si>
     <t>Figma AI Plugins (Magician, Genius)</t>
   </si>
   <si>
     <t>AI-powered UI design assistance in Figma</t>
   </si>
   <si>
-    <t>Figma.com</t>
-  </si>
-  <si>
     <t>Codux AI</t>
   </si>
   <si>
     <t>Visual React app builder with AI-assisted component generation</t>
   </si>
   <si>
-    <t>Codux.io</t>
-  </si>
-  <si>
     <t>TeleportHQ AI Copilot</t>
   </si>
   <si>
@@ -204,9 +165,6 @@
     <t>AI-powered one-page site and landing page generator</t>
   </si>
   <si>
-    <t>PineappleBuilder.com</t>
-  </si>
-  <si>
     <t>AutoBackend</t>
   </si>
   <si>
@@ -216,7 +174,43 @@
     <t>Open-source / Paid</t>
   </si>
   <si>
-    <t>AutoBackend.dev</t>
+    <t>https://durable.co/</t>
+  </si>
+  <si>
+    <t>https://teleporthq.io/</t>
+  </si>
+  <si>
+    <t>https://www.wix.com/ai-website-builder</t>
+  </si>
+  <si>
+    <t>https://www.appypie.com/</t>
+  </si>
+  <si>
+    <t>https://thunkable.com/</t>
+  </si>
+  <si>
+    <t>https://www.adalo.com/</t>
+  </si>
+  <si>
+    <t>https://www.v.one/</t>
+  </si>
+  <si>
+    <t>https://uizard.io/</t>
+  </si>
+  <si>
+    <t>https://bubble.io/</t>
+  </si>
+  <si>
+    <t>https://webflow.com/</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/community</t>
+  </si>
+  <si>
+    <t>https://www.codux.io/</t>
+  </si>
+  <si>
+    <t>https://www.pineapplebuilder.com/</t>
   </si>
 </sst>
 </file>
@@ -299,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -445,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -597,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFB1052-8E8E-4E96-AC21-D437B0755D87}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -639,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -653,283 +647,283 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://durable.co/" xr:uid="{B06CD019-8B15-46DF-8DF4-E8635D58935C}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://10web.io/ai-website-builder/" xr:uid="{DA30AE46-59EC-45ED-882C-8D43DECFB278}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://teleporthq.io/" xr:uid="{245430D9-6FA0-44E2-9B06-3E589CEE01A7}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.builder.io/" xr:uid="{5AAED85F-98D3-4896-A139-5FFD7531C4E3}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.wix.com/adi" xr:uid="{4333DEC7-B984-4C50-9AF1-34FD08A70324}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://zyro.com/" xr:uid="{BE1B955F-1C54-4800-B95B-EA7CD67739E4}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.appypie.com/" xr:uid="{00574A7F-441C-4E32-922F-794259D1EF92}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://thunkable.com/" xr:uid="{99923676-C794-4E07-9232-B00F1C980910}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://www.adalo.com/" xr:uid="{1188913C-6DA8-4608-A960-064A5E1A5215}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://www.glideapps.com/" xr:uid="{E2A92DB4-A63B-4D3A-ABB0-35CE70FEE62F}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.v.one/" xr:uid="{D8EC69E7-550E-4286-858E-A85E35170066}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://www.framer.com/ai" xr:uid="{138721E3-FFB8-4890-AAD3-604135626E58}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://uizard.io/" xr:uid="{2798C417-B9D5-4CAB-A458-FD25528ABADF}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://bubble.io/" xr:uid="{6B4B5B64-5674-4C05-8AD7-1A0FC7FFB3FE}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://webflow.com/" xr:uid="{63AFBA92-416A-477A-BB98-C311A693BDF0}"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://www.figma.com/community" xr:uid="{2C1F5D1E-955A-4071-89D8-5FC45147A968}"/>
-    <hyperlink ref="D19" r:id="rId17" display="https://www.codux.io/" xr:uid="{3E7DBAAF-8F0F-4391-8CC3-84D3C510382F}"/>
-    <hyperlink ref="D20" r:id="rId18" display="https://teleporthq.io/" xr:uid="{2F620A97-A034-4203-8533-C0422CC6DC58}"/>
-    <hyperlink ref="D21" r:id="rId19" display="https://pineapplebuilder.com/" xr:uid="{52EBA715-ED9C-43EE-87A9-03B2D4C27DC2}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://autobackend.dev/" xr:uid="{EDC5C9D1-E06D-468C-B76A-707FB4C4FE9D}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{B06CD019-8B15-46DF-8DF4-E8635D58935C}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{DA30AE46-59EC-45ED-882C-8D43DECFB278}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{245430D9-6FA0-44E2-9B06-3E589CEE01A7}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{5AAED85F-98D3-4896-A139-5FFD7531C4E3}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{4333DEC7-B984-4C50-9AF1-34FD08A70324}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{BE1B955F-1C54-4800-B95B-EA7CD67739E4}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00574A7F-441C-4E32-922F-794259D1EF92}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{99923676-C794-4E07-9232-B00F1C980910}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{1188913C-6DA8-4608-A960-064A5E1A5215}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{E2A92DB4-A63B-4D3A-ABB0-35CE70FEE62F}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{D8EC69E7-550E-4286-858E-A85E35170066}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{138721E3-FFB8-4890-AAD3-604135626E58}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{2798C417-B9D5-4CAB-A458-FD25528ABADF}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{6B4B5B64-5674-4C05-8AD7-1A0FC7FFB3FE}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{63AFBA92-416A-477A-BB98-C311A693BDF0}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{2C1F5D1E-955A-4071-89D8-5FC45147A968}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{3E7DBAAF-8F0F-4391-8CC3-84D3C510382F}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{2F620A97-A034-4203-8533-C0422CC6DC58}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{52EBA715-ED9C-43EE-87A9-03B2D4C27DC2}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{EDC5C9D1-E06D-468C-B76A-707FB4C4FE9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
